--- a/TestCetus.xlsx
+++ b/TestCetus.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24980" windowHeight="15540" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25320" windowHeight="15540" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cetus Bench." sheetId="3" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="193">
   <si>
     <t>Success</t>
   </si>
@@ -585,6 +585,21 @@
   </si>
   <si>
     <t>Observations</t>
+  </si>
+  <si>
+    <t>Array dependences</t>
+  </si>
+  <si>
+    <t>Is not elegible for paralellization (two loops variables)</t>
+  </si>
+  <si>
+    <t>Scalar dependences</t>
+  </si>
+  <si>
+    <t>Array dependences - Scalar dependences</t>
+  </si>
+  <si>
+    <t>Function in loop</t>
   </si>
 </sst>
 </file>
@@ -1037,7 +1052,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E22"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -1364,7 +1379,7 @@
   <dimension ref="A1:H62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1373,7 +1388,7 @@
     <col min="2" max="2" width="4.1640625" style="13" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.83203125" style="13" customWidth="1"/>
     <col min="4" max="7" width="10.83203125" style="1"/>
-    <col min="8" max="8" width="31.33203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="47.33203125" style="13" customWidth="1"/>
     <col min="9" max="16384" width="10.83203125" style="13"/>
   </cols>
   <sheetData>
@@ -1610,7 +1625,9 @@
       <c r="G12" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="H12" s="1"/>
+      <c r="H12" s="1" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="13" t="s">
@@ -1748,6 +1765,9 @@
       </c>
       <c r="G19" s="1" t="s">
         <v>123</v>
+      </c>
+      <c r="H19" s="13" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1959,6 +1979,9 @@
       <c r="G30" s="1" t="s">
         <v>123</v>
       </c>
+      <c r="H30" s="1" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="13" t="s">
@@ -2017,6 +2040,9 @@
       <c r="G33" s="1" t="s">
         <v>123</v>
       </c>
+      <c r="H33" s="1" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="13" t="s">
@@ -2135,6 +2161,9 @@
       <c r="G39" s="1" t="s">
         <v>123</v>
       </c>
+      <c r="H39" s="1" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="13" t="s">
@@ -2252,6 +2281,9 @@
       </c>
       <c r="G45" s="1" t="s">
         <v>123</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="46" spans="1:8">

--- a/TestCetus.xlsx
+++ b/TestCetus.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25320" windowHeight="15540" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="640" yWindow="720" windowWidth="22960" windowHeight="14080" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Cetus Bench." sheetId="3" r:id="rId1"/>
     <sheet name="Rose vs Cetus Bench." sheetId="1" r:id="rId2"/>
     <sheet name="Classification" sheetId="2" r:id="rId3"/>
+    <sheet name="Rose vs Cetus+ Bench." sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="201">
   <si>
     <t>Success</t>
   </si>
@@ -422,9 +423,6 @@
     <t>LCS dynamic programming</t>
   </si>
   <si>
-    <t>The DP formula is not parallelizable</t>
-  </si>
-  <si>
     <t>test5.c </t>
   </si>
   <si>
@@ -542,9 +540,6 @@
     <t>pragma -- line 43</t>
   </si>
   <si>
-    <t>pragma -- line 83</t>
-  </si>
-  <si>
     <t>Loop name function test20.c</t>
   </si>
   <si>
@@ -600,13 +595,43 @@
   </si>
   <si>
     <t>Function in loop</t>
+  </si>
+  <si>
+    <t>Scalar dependences - outter loop in not parallel - interesting output file</t>
+  </si>
+  <si>
+    <t>4 loops - 2 inner loops parallel</t>
+  </si>
+  <si>
+    <t>Loop dependences</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 loop parallel - 2 loop Array dependences </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 loop parallel - 2 scalar dependences </t>
+  </si>
+  <si>
+    <t>The DP formula is not parallelizable - Array dependences</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. find loops cetus </t>
+  </si>
+  <si>
+    <t>2. analyze loops - Categorization</t>
+  </si>
+  <si>
+    <t>Rose NO</t>
+  </si>
+  <si>
+    <t>Rose Only inner loop</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -653,6 +678,18 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -671,20 +708,34 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -708,19 +759,66 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="23">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="22" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1053,7 +1151,7 @@
   <dimension ref="A2:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1062,306 +1160,324 @@
     <col min="2" max="2" width="31.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="4.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="38" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="59.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:5">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="C2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="8" t="s">
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="4" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="4" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="4" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="D12" s="5"/>
+      <c r="E12" s="4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="D13" s="5"/>
+      <c r="E13" s="4" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="D14" s="5"/>
+      <c r="E14" s="4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="D16" s="5"/>
+      <c r="E16" s="4" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E17" s="4" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="6"/>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="6"/>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="6"/>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="6" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="6"/>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="6" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="E11" s="6" t="s">
+    <row r="18" spans="1:5">
+      <c r="A18" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E18" s="4" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="D12" s="7"/>
-      <c r="E12" s="6"/>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="D13" s="7"/>
-      <c r="E13" s="6"/>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="D14" s="7"/>
-      <c r="E14" s="6"/>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="D15" s="7"/>
-      <c r="E15" s="6"/>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="D16" s="7"/>
-      <c r="E16" s="6" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="B18" s="6" t="s">
+    <row r="19" spans="1:5">
+      <c r="A19" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="E18" s="6" t="s">
+      <c r="B19" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E19" s="4" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="B19" s="6" t="s">
+    <row r="20" spans="1:5">
+      <c r="A20" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="6" t="s">
+      <c r="B20" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="C20" s="5"/>
+      <c r="D20" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="6" t="s">
+      <c r="B21" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="C21" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="D21" s="5"/>
+      <c r="E21" s="4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="C21" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="D21" s="7"/>
-      <c r="E21" s="6"/>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="6" t="s">
+      <c r="B22" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="B22" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="D22" s="7"/>
-      <c r="E22" s="6" t="s">
-        <v>133</v>
+      <c r="C22" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="D22" s="5"/>
+      <c r="E22" s="4" t="s">
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -1376,169 +1492,169 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H62"/>
+  <dimension ref="A1:H65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="35.1640625" style="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.1640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.83203125" style="13" customWidth="1"/>
+    <col min="1" max="1" width="35.1640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.1640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.83203125" style="9" customWidth="1"/>
     <col min="4" max="7" width="10.83203125" style="1"/>
-    <col min="8" max="8" width="47.33203125" style="13" customWidth="1"/>
-    <col min="9" max="16384" width="10.83203125" style="13"/>
+    <col min="8" max="8" width="47.33203125" style="9" customWidth="1"/>
+    <col min="9" max="16384" width="10.83203125" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="B1" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="D1" s="3" t="s">
+      <c r="C1" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="D1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3" t="s">
+      <c r="E1" s="17"/>
+      <c r="F1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3" t="s">
-        <v>187</v>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="4" t="s">
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="3"/>
+      <c r="H2" s="17"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="8" t="s">
         <v>123</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>123</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="19" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="1">
         <v>2</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="D4" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="G4" s="1" t="s">
+      <c r="D4" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="G4" s="15" t="s">
         <v>123</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="11"/>
+      <c r="A5" s="19"/>
       <c r="B5" s="1">
         <v>3</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="D5" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="G5" s="1" t="s">
+      <c r="D5" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="G5" s="15" t="s">
         <v>123</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="11"/>
+      <c r="A6" s="19"/>
       <c r="B6" s="1">
         <v>4</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="D6" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="G6" s="1" t="s">
+      <c r="D6" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="G6" s="15" t="s">
         <v>123</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="9" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="1">
         <v>5</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="8" t="s">
         <v>123</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>123</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="9" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="1">
         <v>6</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="D8" s="10"/>
+      <c r="D8" s="8"/>
       <c r="E8" s="1" t="s">
         <v>123</v>
       </c>
@@ -1546,20 +1662,20 @@
         <v>123</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="9" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="1">
         <v>7</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="D9" s="10"/>
+      <c r="D9" s="8"/>
       <c r="E9" s="1" t="s">
         <v>123</v>
       </c>
@@ -1567,58 +1683,58 @@
         <v>123</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="18" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="1">
         <v>8</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="D10" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="G10" s="1" t="s">
+      <c r="D10" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>123</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="12"/>
+      <c r="A11" s="18"/>
       <c r="B11" s="1">
         <v>9</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="D11" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="G11" s="1" t="s">
+      <c r="D11" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>123</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="9" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>10</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="D12" s="10"/>
+      <c r="D12" s="8"/>
       <c r="E12" s="1" t="s">
         <v>123</v>
       </c>
@@ -1626,353 +1742,353 @@
         <v>123</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="9" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>11</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="8" t="s">
         <v>123</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>123</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="9" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>12</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="8" t="s">
         <v>123</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>123</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="9" t="s">
         <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>13</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="D15" s="8" t="s">
         <v>123</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>123</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="9" t="s">
         <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>14</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D16" s="8" t="s">
         <v>123</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>123</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="9" t="s">
         <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>15</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="D17" s="8" t="s">
         <v>123</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>123</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="13" t="s">
+      <c r="A18" s="9" t="s">
         <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>16</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="D18" s="8" t="s">
         <v>123</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>123</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="13" t="s">
+      <c r="A19" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>17</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="D19" s="10"/>
+      <c r="D19" s="8"/>
       <c r="E19" s="1" t="s">
         <v>123</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="H19" s="13" t="s">
-        <v>189</v>
+      <c r="H19" s="9" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="13" t="s">
+      <c r="A20" s="9" t="s">
         <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>18</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="D20" s="10" t="s">
+      <c r="D20" s="8" t="s">
         <v>123</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>123</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="13" t="s">
+      <c r="A21" s="9" t="s">
         <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>19</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C21" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="D21" s="10" t="s">
+      <c r="D21" s="8" t="s">
         <v>123</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>123</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="13" t="s">
+      <c r="A22" s="9" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>20</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="C22" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="D22" s="10" t="s">
+      <c r="D22" s="8" t="s">
         <v>123</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>123</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="12" t="s">
+      <c r="A23" s="18" t="s">
         <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>21</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="C23" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="D23" s="10" t="s">
+      <c r="D23" s="8" t="s">
         <v>123</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>123</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="12"/>
+      <c r="A24" s="18"/>
       <c r="B24" s="1">
         <v>22</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="C24" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="D24" s="10" t="s">
+      <c r="D24" s="8" t="s">
         <v>123</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>123</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="12"/>
+      <c r="A25" s="18"/>
       <c r="B25" s="1">
         <v>23</v>
       </c>
-      <c r="C25" s="13" t="s">
+      <c r="C25" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="D25" s="10" t="s">
+      <c r="D25" s="8" t="s">
         <v>123</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>123</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="12" t="s">
+      <c r="A26" s="18" t="s">
         <v>22</v>
       </c>
       <c r="B26" s="1">
         <v>24</v>
       </c>
-      <c r="C26" s="13" t="s">
+      <c r="C26" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="D26" s="10" t="s">
+      <c r="D26" s="8" t="s">
         <v>123</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>123</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="12"/>
+      <c r="A27" s="18"/>
       <c r="B27" s="1">
         <v>25</v>
       </c>
-      <c r="C27" s="13" t="s">
+      <c r="C27" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="D27" s="10" t="s">
+      <c r="D27" s="8" t="s">
         <v>123</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>123</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="13" t="s">
+      <c r="A28" s="9" t="s">
         <v>23</v>
       </c>
       <c r="B28" s="1">
         <v>26</v>
       </c>
-      <c r="C28" s="13" t="s">
+      <c r="C28" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="D28" s="10" t="s">
+      <c r="D28" s="8" t="s">
         <v>123</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>123</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="12" t="s">
+      <c r="A29" s="18" t="s">
         <v>24</v>
       </c>
       <c r="B29" s="1">
         <v>27</v>
       </c>
-      <c r="C29" s="13" t="s">
+      <c r="C29" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="D29" s="10" t="s">
+      <c r="D29" s="8" t="s">
         <v>123</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>123</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="12"/>
+      <c r="A30" s="18"/>
       <c r="B30" s="1">
         <v>28</v>
       </c>
-      <c r="C30" s="13" t="s">
+      <c r="C30" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="D30" s="10"/>
+      <c r="D30" s="8"/>
       <c r="E30" s="1" t="s">
         <v>123</v>
       </c>
@@ -1980,60 +2096,60 @@
         <v>123</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="13" t="s">
+      <c r="A31" s="9" t="s">
         <v>25</v>
       </c>
       <c r="B31" s="1">
         <v>29</v>
       </c>
-      <c r="C31" s="13" t="s">
+      <c r="C31" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="D31" s="10" t="s">
+      <c r="D31" s="8" t="s">
         <v>123</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>123</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="13" t="s">
+      <c r="A32" s="9" t="s">
         <v>26</v>
       </c>
       <c r="B32" s="1">
         <v>30</v>
       </c>
-      <c r="C32" s="13" t="s">
+      <c r="C32" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="D32" s="10" t="s">
+      <c r="D32" s="8" t="s">
         <v>123</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>123</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="13" t="s">
+      <c r="A33" s="9" t="s">
         <v>27</v>
       </c>
       <c r="B33" s="1">
         <v>31</v>
       </c>
-      <c r="C33" s="13" t="s">
+      <c r="C33" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="D33" s="10"/>
+      <c r="D33" s="8"/>
       <c r="E33" s="1" t="s">
         <v>123</v>
       </c>
@@ -2041,120 +2157,120 @@
         <v>123</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="13" t="s">
+      <c r="A34" s="9" t="s">
         <v>28</v>
       </c>
       <c r="B34" s="1">
         <v>32</v>
       </c>
-      <c r="C34" s="13" t="s">
+      <c r="C34" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="D34" s="10" t="s">
+      <c r="D34" s="8" t="s">
         <v>123</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>123</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="13" t="s">
+      <c r="A35" s="9" t="s">
         <v>29</v>
       </c>
       <c r="B35" s="1">
         <v>33</v>
       </c>
-      <c r="C35" s="13" t="s">
+      <c r="C35" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="D35" s="10" t="s">
+      <c r="D35" s="8" t="s">
         <v>123</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>123</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="13" t="s">
+      <c r="A36" s="9" t="s">
         <v>30</v>
       </c>
       <c r="B36" s="1">
         <v>34</v>
       </c>
-      <c r="C36" s="13" t="s">
+      <c r="C36" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="D36" s="10" t="s">
+      <c r="D36" s="8" t="s">
         <v>123</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>123</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="13" t="s">
+      <c r="A37" s="9" t="s">
         <v>31</v>
       </c>
       <c r="B37" s="1">
         <v>35</v>
       </c>
-      <c r="C37" s="13" t="s">
+      <c r="C37" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="D37" s="10" t="s">
+      <c r="D37" s="8" t="s">
         <v>123</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>123</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="13" t="s">
+      <c r="A38" s="9" t="s">
         <v>32</v>
       </c>
       <c r="B38" s="1">
         <v>36</v>
       </c>
-      <c r="C38" s="13" t="s">
+      <c r="C38" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D38" s="10" t="s">
+      <c r="D38" s="8" t="s">
         <v>123</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>123</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="13" t="s">
+      <c r="A39" s="9" t="s">
         <v>33</v>
       </c>
       <c r="B39" s="1">
         <v>37</v>
       </c>
-      <c r="C39" s="13" t="s">
+      <c r="C39" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="D39" s="10"/>
+      <c r="D39" s="8"/>
       <c r="E39" s="1" t="s">
         <v>123</v>
       </c>
@@ -2162,120 +2278,120 @@
         <v>123</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="13" t="s">
+      <c r="A40" s="9" t="s">
         <v>34</v>
       </c>
       <c r="B40" s="1">
         <v>38</v>
       </c>
-      <c r="C40" s="13" t="s">
+      <c r="C40" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="D40" s="10" t="s">
+      <c r="D40" s="8" t="s">
         <v>123</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>123</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="13" t="s">
+      <c r="A41" s="9" t="s">
         <v>35</v>
       </c>
       <c r="B41" s="1">
         <v>39</v>
       </c>
-      <c r="C41" s="13" t="s">
+      <c r="C41" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="D41" s="10" t="s">
+      <c r="D41" s="8" t="s">
         <v>123</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>123</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="13" t="s">
+      <c r="A42" s="9" t="s">
         <v>36</v>
       </c>
       <c r="B42" s="1">
         <v>40</v>
       </c>
-      <c r="C42" s="13" t="s">
+      <c r="C42" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="D42" s="10" t="s">
+      <c r="D42" s="8" t="s">
         <v>123</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>123</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="13" t="s">
+      <c r="A43" s="9" t="s">
         <v>37</v>
       </c>
       <c r="B43" s="1">
         <v>41</v>
       </c>
-      <c r="C43" s="13" t="s">
+      <c r="C43" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="D43" s="10" t="s">
+      <c r="D43" s="8" t="s">
         <v>123</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>123</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="13" t="s">
+      <c r="A44" s="9" t="s">
         <v>38</v>
       </c>
       <c r="B44" s="1">
         <v>42</v>
       </c>
-      <c r="C44" s="13" t="s">
+      <c r="C44" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="D44" s="10" t="s">
+      <c r="D44" s="8" t="s">
         <v>123</v>
       </c>
       <c r="G44" s="1" t="s">
         <v>123</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="13" t="s">
+      <c r="A45" s="9" t="s">
         <v>39</v>
       </c>
       <c r="B45" s="1">
         <v>43</v>
       </c>
-      <c r="C45" s="13" t="s">
+      <c r="C45" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="D45" s="10"/>
+      <c r="D45" s="8"/>
       <c r="E45" s="1" t="s">
         <v>123</v>
       </c>
@@ -2283,60 +2399,60 @@
         <v>123</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="13" t="s">
+      <c r="A46" s="9" t="s">
         <v>40</v>
       </c>
       <c r="B46" s="1">
         <v>44</v>
       </c>
-      <c r="C46" s="13" t="s">
+      <c r="C46" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="D46" s="10" t="s">
+      <c r="D46" s="8" t="s">
         <v>123</v>
       </c>
       <c r="G46" s="1" t="s">
         <v>123</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="13" t="s">
+      <c r="A47" s="9" t="s">
         <v>41</v>
       </c>
       <c r="B47" s="1">
         <v>45</v>
       </c>
-      <c r="C47" s="13" t="s">
+      <c r="C47" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="D47" s="10" t="s">
+      <c r="D47" s="8" t="s">
         <v>123</v>
       </c>
       <c r="G47" s="1" t="s">
         <v>123</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="12" t="s">
+      <c r="A48" s="18" t="s">
         <v>42</v>
       </c>
       <c r="B48" s="1">
         <v>46</v>
       </c>
-      <c r="C48" s="13" t="s">
+      <c r="C48" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="D48" s="10"/>
+      <c r="D48" s="8"/>
       <c r="E48" s="1" t="s">
         <v>123</v>
       </c>
@@ -2344,194 +2460,194 @@
         <v>123</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="12"/>
+      <c r="A49" s="18"/>
       <c r="B49" s="1">
         <v>47</v>
       </c>
-      <c r="C49" s="13" t="s">
+      <c r="C49" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="D49" s="10" t="s">
+      <c r="D49" s="8" t="s">
         <v>123</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>123</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="12" t="s">
+      <c r="A50" s="18" t="s">
         <v>43</v>
       </c>
       <c r="B50" s="1">
         <v>48</v>
       </c>
-      <c r="C50" s="13" t="s">
+      <c r="C50" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="D50" s="10" t="s">
+      <c r="D50" s="8" t="s">
         <v>123</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>123</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="12"/>
+      <c r="A51" s="18"/>
       <c r="B51" s="1">
         <v>49</v>
       </c>
-      <c r="C51" s="13" t="s">
+      <c r="C51" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="D51" s="10" t="s">
+      <c r="D51" s="8" t="s">
         <v>123</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>123</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="13" t="s">
+      <c r="A52" s="9" t="s">
         <v>44</v>
       </c>
       <c r="B52" s="1">
         <v>50</v>
       </c>
-      <c r="C52" s="13" t="s">
+      <c r="C52" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="D52" s="10" t="s">
+      <c r="D52" s="8" t="s">
         <v>123</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>123</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="12" t="s">
+      <c r="A53" s="18" t="s">
         <v>45</v>
       </c>
       <c r="B53" s="1">
         <v>51</v>
       </c>
-      <c r="C53" s="13" t="s">
+      <c r="C53" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="D53" s="10" t="s">
+      <c r="D53" s="8" t="s">
         <v>123</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>123</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="12"/>
+      <c r="A54" s="18"/>
       <c r="B54" s="1">
         <v>52</v>
       </c>
-      <c r="C54" s="13" t="s">
+      <c r="C54" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="D54" s="10" t="s">
+      <c r="D54" s="8" t="s">
         <v>123</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>123</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="13" t="s">
+      <c r="A55" s="9" t="s">
         <v>46</v>
       </c>
       <c r="B55" s="1">
         <v>53</v>
       </c>
-      <c r="C55" s="13" t="s">
+      <c r="C55" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="D55" s="10" t="s">
+      <c r="D55" s="8" t="s">
         <v>123</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>123</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="13" t="s">
+      <c r="A56" s="9" t="s">
         <v>47</v>
       </c>
       <c r="B56" s="1">
         <v>54</v>
       </c>
-      <c r="C56" s="13" t="s">
+      <c r="C56" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="D56" s="10" t="s">
+      <c r="D56" s="8" t="s">
         <v>123</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>123</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="13" t="s">
+      <c r="A57" s="9" t="s">
         <v>48</v>
       </c>
       <c r="B57" s="1">
         <v>55</v>
       </c>
-      <c r="C57" s="13" t="s">
+      <c r="C57" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="D57" s="10" t="s">
+      <c r="D57" s="8" t="s">
         <v>123</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>123</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="58" spans="1:8">
-      <c r="A58" s="13" t="s">
+      <c r="A58" s="9" t="s">
         <v>49</v>
       </c>
       <c r="B58" s="1">
         <v>56</v>
       </c>
-      <c r="C58" s="13" t="s">
+      <c r="C58" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="D58" s="10"/>
+      <c r="D58" s="8"/>
       <c r="E58" s="1" t="s">
         <v>123</v>
       </c>
@@ -2539,20 +2655,20 @@
         <v>123</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" s="13" t="s">
+      <c r="A59" s="9" t="s">
         <v>50</v>
       </c>
       <c r="B59" s="1">
         <v>57</v>
       </c>
-      <c r="C59" s="13" t="s">
+      <c r="C59" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="D59" s="10"/>
+      <c r="D59" s="8"/>
       <c r="E59" s="1" t="s">
         <v>123</v>
       </c>
@@ -2560,20 +2676,20 @@
         <v>123</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="13" t="s">
+      <c r="A60" s="9" t="s">
         <v>51</v>
       </c>
       <c r="B60" s="1">
         <v>58</v>
       </c>
-      <c r="C60" s="13" t="s">
+      <c r="C60" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="D60" s="10"/>
+      <c r="D60" s="8"/>
       <c r="E60" s="1" t="s">
         <v>123</v>
       </c>
@@ -2581,48 +2697,58 @@
         <v>123</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="13" t="s">
+      <c r="A61" s="9" t="s">
         <v>52</v>
       </c>
       <c r="B61" s="1">
         <v>59</v>
       </c>
-      <c r="C61" s="13" t="s">
+      <c r="C61" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="D61" s="10" t="s">
+      <c r="D61" s="8" t="s">
         <v>123</v>
       </c>
       <c r="F61" s="1" t="s">
         <v>123</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="30">
-      <c r="A62" s="14" t="s">
+      <c r="A62" s="10" t="s">
         <v>53</v>
       </c>
       <c r="B62" s="1">
         <v>60</v>
       </c>
-      <c r="C62" s="13" t="s">
+      <c r="C62" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="D62" s="10"/>
+      <c r="D62" s="8"/>
       <c r="E62" s="1" t="s">
         <v>123</v>
       </c>
       <c r="G62" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="H62" s="10" t="s">
-        <v>186</v>
+      <c r="H62" s="8" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" s="11" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" s="9" customFormat="1">
+      <c r="A65" s="11" t="s">
+        <v>198</v>
       </c>
     </row>
   </sheetData>
@@ -2656,8 +2782,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:G4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2671,22 +2797,22 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:7">
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="3" t="s">
         <v>112</v>
       </c>
     </row>
@@ -2698,4 +2824,1302 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H65"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="D52" sqref="D52"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="35.1640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.1640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.83203125" style="13" customWidth="1"/>
+    <col min="4" max="7" width="10.83203125" style="1"/>
+    <col min="8" max="8" width="47.33203125" style="13" customWidth="1"/>
+    <col min="9" max="16384" width="10.83203125" style="13"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="17"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="G3" s="21"/>
+      <c r="H3" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1">
+        <v>2</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="19"/>
+      <c r="B5" s="1">
+        <v>3</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="19"/>
+      <c r="B6" s="1">
+        <v>4</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>5</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>6</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
+        <v>7</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1">
+        <v>8</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="18"/>
+      <c r="B11" s="1">
+        <v>9</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1">
+        <v>10</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1">
+        <v>11</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1">
+        <v>12</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1">
+        <v>13</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1">
+        <v>14</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="F16" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1">
+        <v>15</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1">
+        <v>16</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1">
+        <v>17</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="1">
+        <v>18</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="1">
+        <v>19</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="1">
+        <v>20</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="1">
+        <v>21</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="D23" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="18"/>
+      <c r="B24" s="1">
+        <v>22</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="D24" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="18"/>
+      <c r="B25" s="1">
+        <v>23</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="D25" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26" s="1">
+        <v>24</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="18"/>
+      <c r="B27" s="1">
+        <v>25</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B28" s="1">
+        <v>26</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" s="1">
+        <v>27</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="18"/>
+      <c r="B30" s="1">
+        <v>28</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="D30" s="8"/>
+      <c r="E30" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" s="1">
+        <v>29</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="D31" s="8"/>
+      <c r="E31" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="F31" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B32" s="1">
+        <v>30</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B33" s="1">
+        <v>31</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="D33" s="8"/>
+      <c r="E33" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B34" s="1">
+        <v>32</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B35" s="1">
+        <v>33</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B36" s="1">
+        <v>34</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B37" s="1">
+        <v>35</v>
+      </c>
+      <c r="C37" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B38" s="1">
+        <v>36</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B39" s="1">
+        <v>37</v>
+      </c>
+      <c r="C39" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="D39" s="8"/>
+      <c r="E39" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B40" s="1">
+        <v>38</v>
+      </c>
+      <c r="C40" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B41" s="1">
+        <v>39</v>
+      </c>
+      <c r="C41" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B42" s="1">
+        <v>40</v>
+      </c>
+      <c r="C42" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B43" s="1">
+        <v>41</v>
+      </c>
+      <c r="C43" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B44" s="1">
+        <v>42</v>
+      </c>
+      <c r="C44" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B45" s="1">
+        <v>43</v>
+      </c>
+      <c r="C45" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="D45" s="8"/>
+      <c r="E45" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B46" s="1">
+        <v>44</v>
+      </c>
+      <c r="C46" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="D46" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="E46" s="21"/>
+      <c r="F46" s="21"/>
+      <c r="G46" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B47" s="1">
+        <v>45</v>
+      </c>
+      <c r="C47" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="B48" s="1">
+        <v>46</v>
+      </c>
+      <c r="C48" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="D48" s="8"/>
+      <c r="E48" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="18"/>
+      <c r="B49" s="1">
+        <v>47</v>
+      </c>
+      <c r="C49" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="B50" s="1">
+        <v>48</v>
+      </c>
+      <c r="C50" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="18"/>
+      <c r="B51" s="1">
+        <v>49</v>
+      </c>
+      <c r="C51" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B52" s="1">
+        <v>50</v>
+      </c>
+      <c r="C52" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="D52" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="B53" s="1">
+        <v>51</v>
+      </c>
+      <c r="C53" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="18"/>
+      <c r="B54" s="1">
+        <v>52</v>
+      </c>
+      <c r="C54" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="D54" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B55" s="1">
+        <v>53</v>
+      </c>
+      <c r="C55" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="D55" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B56" s="1">
+        <v>54</v>
+      </c>
+      <c r="C56" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="D56" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B57" s="1">
+        <v>55</v>
+      </c>
+      <c r="C57" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="D57" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B58" s="1">
+        <v>56</v>
+      </c>
+      <c r="C58" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="D58" s="8"/>
+      <c r="E58" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B59" s="1">
+        <v>57</v>
+      </c>
+      <c r="C59" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="D59" s="8"/>
+      <c r="E59" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B60" s="1">
+        <v>58</v>
+      </c>
+      <c r="C60" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="D60" s="8"/>
+      <c r="E60" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B61" s="1">
+        <v>59</v>
+      </c>
+      <c r="C61" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="D61" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B62" s="1">
+        <v>60</v>
+      </c>
+      <c r="C62" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="D62" s="8"/>
+      <c r="E62" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="F62" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="H62" s="8" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" s="13" customFormat="1">
+      <c r="A65" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:H2"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>